--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{079F5667-B340-4C43-BF05-6CF87AADA70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FA060E-A58D-4B79-B542-32B8A6D4AEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Fe</t>
   </si>
@@ -68,12 +68,21 @@
   </si>
   <si>
     <t>Mo</t>
+  </si>
+  <si>
+    <t>AISI 430</t>
+  </si>
+  <si>
+    <t>AISI 316L</t>
+  </si>
+  <si>
+    <t>20Х13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -925,11 +934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,39 +1026,135 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>0.62534999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.17</v>
+      </c>
+      <c r="E3">
+        <v>0.16</v>
+      </c>
+      <c r="F3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I3">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="J3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0.80220000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.18</v>
+      </c>
+      <c r="F4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H4">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I4">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="J4">
+        <v>3.5E-4</v>
+      </c>
+      <c r="K4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>0.83894999999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H5">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I5">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="J5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>0.65425</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>0.19</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>0.11</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>0.02</v>
       </c>
-      <c r="G3">
+      <c r="G6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H3">
+      <c r="H6">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="I3">
+      <c r="I6">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="J3">
+      <c r="J6">
         <v>3.5E-4</v>
       </c>
-      <c r="K3">
+      <c r="K6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L3">
+      <c r="L6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M3">
+      <c r="M6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
